--- a/timeline/philosophy.xlsx
+++ b/timeline/philosophy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7FC427-9C1C-A148-B46B-221A7238752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345D04BC-CD14-E54B-9D4B-53180115B88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{01056964-EFF9-CC4B-9F29-15A97D6DAB56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="119">
   <si>
     <t>Service</t>
   </si>
@@ -361,13 +361,52 @@
   </si>
   <si>
     <t>https://pkm-vercel.vercel.app/KnowledgeAreas/Philosophy/Philosophers</t>
+  </si>
+  <si>
+    <t>Georg Wilhelm Friedrich Hegel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialectical scheme
+Philosophy of History
+</t>
+  </si>
+  <si>
+    <t>Phenomenology (1807)
+The Science of Logic ()
+Philosophy of Right (1820)</t>
+  </si>
+  <si>
+    <t>"If you cling to life you will lose it"</t>
+  </si>
+  <si>
+    <t>Idealism</t>
+  </si>
+  <si>
+    <t>The Philosophy of History gives an account of the history of freedom, going from freedom for one, to freedom for some, and then freedom for all. 
+The dialectic is a term that is associated to a synthesis, an antithesis and synthesis. Hegel never uses this terminology, but talks about some position and its opposite, which needs to be resolved by reason.
+Hegel thinks that in order for someone to be free, all must be free.</t>
+  </si>
+  <si>
+    <t>William of Ockham</t>
+  </si>
+  <si>
+    <t>Scholasticism</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/</t>
+  </si>
+  <si>
+    <t>William_of_Ockham</t>
+  </si>
+  <si>
+    <t>Beliefs don’t come from our reason but rather from our feelings and ideas of how the world should be.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,6 +418,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -420,8 +467,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -429,11 +477,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,8 +497,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}" name="Table1" displayName="Table1" ref="A1:V59" totalsRowShown="0">
-  <autoFilter ref="A1:V59" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}" name="Table1" displayName="Table1" ref="A1:V63" totalsRowShown="0">
+  <autoFilter ref="A1:V63" xr:uid="{528B89B5-E0DC-4A4B-9AAA-10B7ADF9571D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T49">
     <sortCondition ref="S2:S49"/>
     <sortCondition ref="F2:F49"/>
@@ -794,22 +841,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B71B893-BE33-8E4F-A8AE-9C95E0806B93}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V21" sqref="V21"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="5" width="6.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
     <col min="7" max="7" width="28.83203125" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="32.5" customWidth="1"/>
@@ -1750,7 +1797,7 @@
       <c r="T20">
         <v>1650</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="1" t="s">
         <v>107</v>
       </c>
       <c r="V20" t="s">
@@ -2199,6 +2246,12 @@
       <c r="N30" t="s">
         <v>46</v>
       </c>
+      <c r="O30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" t="s">
+        <v>89</v>
+      </c>
       <c r="Q30" t="s">
         <v>97</v>
       </c>
@@ -3007,7 +3060,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3046,7 +3099,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B50">
         <f>IF(B49="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F49,B49,B49+1))</f>
         <v>25</v>
@@ -3107,7 +3160,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B51">
         <f>IF(B50="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F50,B50,B50+1))</f>
         <v>25</v>
@@ -3143,7 +3196,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B52">
         <f>IF(B51="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F51,B51,B51+1))</f>
         <v>26</v>
@@ -3189,7 +3242,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B53">
         <f>IF(B52="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F52,B52,B52+1))</f>
         <v>26</v>
@@ -3225,7 +3278,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B54">
         <f>IF(B53="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F53,B53,B53+1))</f>
         <v>27</v>
@@ -3271,7 +3324,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B55">
         <f>IF(B54="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F54,B54,B54+1))</f>
         <v>27</v>
@@ -3307,7 +3360,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B56">
         <f>IF(B55="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F55,B55,B55+1))</f>
         <v>28</v>
@@ -3356,7 +3409,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B57">
         <f>IF(B56="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F56,B56,B56+1))</f>
         <v>28</v>
@@ -3389,7 +3442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B58">
         <f>IF(B57="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F57,B57,B57+1))</f>
         <v>29</v>
@@ -3435,7 +3488,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B59">
         <f>IF(B58="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F58,B58,B58+1))</f>
         <v>29</v>
@@ -3468,11 +3521,156 @@
         <v>46</v>
       </c>
     </row>
+    <row r="60" spans="1:22" ht="221" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f>IF(B59="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F59,B59,B59+1))</f>
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>1770</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>27</v>
+      </c>
+      <c r="F60" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" t="str">
+        <f>Table1[[#This Row],[Name]]&amp;" (" &amp;Table1[[#This Row],[DateOfBirth]] &amp;" - "&amp;Table1[[#This Row],[DateOfDeath]]&amp;")"</f>
+        <v>Georg Wilhelm Friedrich Hegel (1770 - 1831)</v>
+      </c>
+      <c r="H60" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" t="s">
+        <v>45</v>
+      </c>
+      <c r="N60" t="s">
+        <v>46</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P60" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R60" t="s">
+        <v>62</v>
+      </c>
+      <c r="S60">
+        <v>1770</v>
+      </c>
+      <c r="T60">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <f>IF(B60="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F60,B60,B60+1))</f>
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>1831</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>108</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f>IF(B61="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F61,B61,B61+1))</f>
+        <v>31</v>
+      </c>
+      <c r="C62">
+        <v>1288</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>114</v>
+      </c>
+      <c r="P62" t="s">
+        <v>115</v>
+      </c>
+      <c r="S62">
+        <v>1288</v>
+      </c>
+      <c r="T62">
+        <v>1348</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <f>IF(B62="TimeLineId",1,IF(Table1[[#This Row],[Name]]=F62,B62,B62+1))</f>
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>1348</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U62" r:id="rId1" xr:uid="{C43AD784-CA62-0A42-ACD3-15ABDF4403BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
